--- a/trials.xlsx
+++ b/trials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakama/Documents/_ai/pyimagesearch-training-a-custom-dlib-shape-predictor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakama/Documents/_ai/training-dlib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39BD4ECE-A0F8-884B-AC34-018A2FF4F829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{632B0E73-CB32-2F42-95ED-DFB6CC5E14D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="trials" sheetId="1" r:id="rId1"/>
@@ -58,175 +58,175 @@
     <t>model_size</t>
   </si>
   <si>
-    <t>0.00042865276336669924</t>
-  </si>
-  <si>
-    <t>0.00036346912384033203</t>
-  </si>
-  <si>
-    <t>0.0013649940490722656</t>
-  </si>
-  <si>
-    <t>0.0015910863876342773</t>
-  </si>
-  <si>
-    <t>0.001681971549987793</t>
-  </si>
-  <si>
-    <t>0.002364325523376465</t>
-  </si>
-  <si>
-    <t>0.0007276296615600586</t>
-  </si>
-  <si>
-    <t>0.001023244857788086</t>
-  </si>
-  <si>
-    <t>0.0017328739166259765</t>
-  </si>
-  <si>
-    <t>0.06228629397188976</t>
-  </si>
-  <si>
-    <t>0.0016974925994873047</t>
-  </si>
-  <si>
-    <t>0.0011040449142456054</t>
-  </si>
-  <si>
-    <t>0.0006197929382324219</t>
-  </si>
-  <si>
-    <t>0.0011868238449096679</t>
-  </si>
-  <si>
-    <t>0.0006518840789794921</t>
-  </si>
-  <si>
-    <t>0.0003591299057006836</t>
-  </si>
-  <si>
-    <t>0.001216554641723633</t>
-  </si>
-  <si>
-    <t>0.0007031679153442383</t>
-  </si>
-  <si>
-    <t>0.000545334815979004</t>
-  </si>
-  <si>
-    <t>0.0008141756057739258</t>
-  </si>
-  <si>
-    <t>0.0018126726150512694</t>
-  </si>
-  <si>
-    <t>0.0003159046173095703</t>
-  </si>
-  <si>
-    <t>0.0008372306823730469</t>
-  </si>
-  <si>
-    <t>0.0012676239013671875</t>
-  </si>
-  <si>
-    <t>0.001261758804321289</t>
-  </si>
-  <si>
-    <t>0.00039856433868408204</t>
-  </si>
-  <si>
-    <t>0.0007140874862670898</t>
-  </si>
-  <si>
-    <t>0.000721144676208496</t>
-  </si>
-  <si>
-    <t>0.0013842821121215821</t>
-  </si>
-  <si>
-    <t>0.0020040035247802734</t>
-  </si>
-  <si>
-    <t>0.00198024162730615</t>
-  </si>
-  <si>
-    <t>0.000859832763671875</t>
-  </si>
-  <si>
-    <t>0.0006760120391845703</t>
-  </si>
-  <si>
-    <t>0.0008777618408203125</t>
-  </si>
-  <si>
-    <t>0.000625443458557129</t>
-  </si>
-  <si>
-    <t>0.00044417381286621094</t>
-  </si>
-  <si>
-    <t>0.0017420053482055664</t>
-  </si>
-  <si>
-    <t>0.0009815454483032226</t>
-  </si>
-  <si>
-    <t>0.0023623228073120115</t>
-  </si>
-  <si>
-    <t>0.001977372649559872</t>
-  </si>
-  <si>
-    <t>0.0004509925842285156</t>
-  </si>
-  <si>
-    <t>0.0013811588287353516</t>
-  </si>
-  <si>
-    <t>0.0016893863677978516</t>
-  </si>
-  <si>
-    <t>0.0013981103897094727</t>
-  </si>
-  <si>
-    <t>0.0013067960739135743</t>
-  </si>
-  <si>
-    <t>0.0015926599502563477</t>
-  </si>
-  <si>
-    <t>0.0005192995071411133</t>
-  </si>
-  <si>
-    <t>0.0013482332229614257</t>
-  </si>
-  <si>
-    <t>0.0016038894653320312</t>
-  </si>
-  <si>
-    <t>0.0629095651981387</t>
-  </si>
-  <si>
-    <t>0.0005768537521362305</t>
-  </si>
-  <si>
-    <t>0.0004969358444213868</t>
-  </si>
-  <si>
-    <t>0.002165699005126953</t>
-  </si>
-  <si>
-    <t>0.0005581855773925781</t>
-  </si>
-  <si>
-    <t>0.0005835533142089844</t>
-  </si>
-  <si>
-    <t>0.0009874582290649414</t>
-  </si>
-  <si>
-    <t>0.0019127130508422852</t>
+    <t>0.000228653</t>
+  </si>
+  <si>
+    <t>0.000263469</t>
+  </si>
+  <si>
+    <t>0.001028394</t>
+  </si>
+  <si>
+    <t>0.001254487</t>
+  </si>
+  <si>
+    <t>0.001345372</t>
+  </si>
+  <si>
+    <t>0.002027726</t>
+  </si>
+  <si>
+    <t>0.00039103</t>
+  </si>
+  <si>
+    <t>0.000686645</t>
+  </si>
+  <si>
+    <t>0.001396274</t>
+  </si>
+  <si>
+    <t>0.062286294</t>
+  </si>
+  <si>
+    <t>0.001360893</t>
+  </si>
+  <si>
+    <t>0.000767445</t>
+  </si>
+  <si>
+    <t>0.000283193</t>
+  </si>
+  <si>
+    <t>0.000850224</t>
+  </si>
+  <si>
+    <t>0.000315284</t>
+  </si>
+  <si>
+    <t>0.00015913</t>
+  </si>
+  <si>
+    <t>0.000879955</t>
+  </si>
+  <si>
+    <t>0.000366568</t>
+  </si>
+  <si>
+    <t>0.000208735</t>
+  </si>
+  <si>
+    <t>0.000477576</t>
+  </si>
+  <si>
+    <t>0.001476073</t>
+  </si>
+  <si>
+    <t>0.000115905</t>
+  </si>
+  <si>
+    <t>0.000500631</t>
+  </si>
+  <si>
+    <t>0.000931024</t>
+  </si>
+  <si>
+    <t>0.000925159</t>
+  </si>
+  <si>
+    <t>0.000198564</t>
+  </si>
+  <si>
+    <t>0.000377488</t>
+  </si>
+  <si>
+    <t>0.000384545</t>
+  </si>
+  <si>
+    <t>0.001047682</t>
+  </si>
+  <si>
+    <t>0.001667404</t>
+  </si>
+  <si>
+    <t>0.001980242</t>
+  </si>
+  <si>
+    <t>0.000523233</t>
+  </si>
+  <si>
+    <t>0.000339412</t>
+  </si>
+  <si>
+    <t>0.000541162</t>
+  </si>
+  <si>
+    <t>0.000288844</t>
+  </si>
+  <si>
+    <t>0.000107574</t>
+  </si>
+  <si>
+    <t>0.001405406</t>
+  </si>
+  <si>
+    <t>0.000644946</t>
+  </si>
+  <si>
+    <t>0.002025723</t>
+  </si>
+  <si>
+    <t>0.001977373</t>
+  </si>
+  <si>
+    <t>0.000114393</t>
+  </si>
+  <si>
+    <t>0.001044559</t>
+  </si>
+  <si>
+    <t>0.001352787</t>
+  </si>
+  <si>
+    <t>0.001061511</t>
+  </si>
+  <si>
+    <t>0.000970196</t>
+  </si>
+  <si>
+    <t>0.00125606</t>
+  </si>
+  <si>
+    <t>0.0001827</t>
+  </si>
+  <si>
+    <t>0.001011634</t>
+  </si>
+  <si>
+    <t>0.00126729</t>
+  </si>
+  <si>
+    <t>0.062909565</t>
+  </si>
+  <si>
+    <t>0.000240254</t>
+  </si>
+  <si>
+    <t>0.000160336</t>
+  </si>
+  <si>
+    <t>0.001829099</t>
+  </si>
+  <si>
+    <t>0.000221586</t>
+  </si>
+  <si>
+    <t>0.000246954</t>
+  </si>
+  <si>
+    <t>0.000650859</t>
+  </si>
+  <si>
+    <t>0.001576113</t>
   </si>
 </sst>
 </file>
@@ -1072,22 +1072,10 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection sqref="A1:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1129,40 +1117,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>1000</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2">
-        <v>2973774299621580</v>
-      </c>
-      <c r="J2" t="s">
-        <v>61</v>
+        <v>2431381969</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9700645444</v>
       </c>
       <c r="K2" s="2">
-        <v>140510060448067</v>
+        <v>9987083126</v>
       </c>
       <c r="L2">
-        <v>17908122</v>
+        <v>1971924</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1170,113 +1158,113 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>20</v>
       </c>
       <c r="F3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2">
-        <v>1.23221336913108E+16</v>
+        <v>2178635881</v>
       </c>
       <c r="J3" s="2">
-        <v>2643711917106200</v>
+        <v>7046061103</v>
       </c>
       <c r="K3" s="2">
-        <v>239927123351241</v>
+        <v>1187570907</v>
       </c>
       <c r="L3">
-        <v>3162288</v>
+        <v>1884587</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2">
-        <v>5303544721603390</v>
+        <v>2178939035</v>
       </c>
       <c r="J4" s="2">
-        <v>1.02997170828121E+16</v>
+        <v>106684076</v>
       </c>
       <c r="K4" s="2">
-        <v>1023659048524940</v>
+        <v>1075911717</v>
       </c>
       <c r="L4">
-        <v>1950069</v>
+        <v>15139042</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E5">
         <v>20</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2">
-        <v>2752123601436610</v>
+        <v>2371692388</v>
       </c>
       <c r="J5" s="2">
-        <v>901021499820429</v>
+        <v>1718302224</v>
       </c>
       <c r="K5" s="2">
-        <v>1310473754528490</v>
+        <v>1564002354</v>
       </c>
       <c r="L5">
-        <v>17826389</v>
+        <v>50526850</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1284,51 +1272,51 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2">
-        <v>1.16554252328872E+16</v>
+        <v>937509666</v>
       </c>
       <c r="J6" s="2">
-        <v>1904043290636930</v>
+        <v>4432316746</v>
       </c>
       <c r="K6" s="2">
-        <v>6116271677397010</v>
+        <v>7913451297</v>
       </c>
       <c r="L6">
-        <v>51050045</v>
+        <v>40377701</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -1337,60 +1325,60 @@
         <v>40</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I7" s="2">
-        <v>2189299657702440</v>
+        <v>919849241</v>
       </c>
       <c r="J7" s="2">
-        <v>5184501484534730</v>
+        <v>4675104982</v>
       </c>
       <c r="K7" s="2">
-        <v>6659176949545120</v>
+        <v>7339726692</v>
       </c>
       <c r="L7">
-        <v>15363291</v>
+        <v>71524964</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2">
-        <v>4713715078830710</v>
+        <v>246203265</v>
       </c>
       <c r="J8" s="2">
-        <v>500875187033859</v>
+        <v>7255392848</v>
       </c>
       <c r="K8" s="2">
-        <v>6704251808929100</v>
+        <v>1117236993</v>
       </c>
       <c r="L8">
-        <v>17690243</v>
+        <v>3286040</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1398,13 +1386,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -1413,22 +1401,22 @@
         <v>40</v>
       </c>
       <c r="G9" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I9" s="2">
-        <v>9198492410182950</v>
+        <v>2845186579</v>
       </c>
       <c r="J9" s="2">
-        <v>4675104981786000</v>
+        <v>4406122371</v>
       </c>
       <c r="K9" s="2">
-        <v>7339726691991530</v>
+        <v>7324616024</v>
       </c>
       <c r="L9">
-        <v>71524964</v>
+        <v>30298001</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1436,54 +1424,54 @@
         <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E10">
         <v>20</v>
       </c>
       <c r="F10">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I10" s="2">
-        <v>3195441251039500</v>
-      </c>
-      <c r="J10" s="2">
-        <v>592267094606891</v>
+        <v>2925454071</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
       </c>
       <c r="K10" s="2">
-        <v>7457638098086360</v>
+        <v>3180795445</v>
       </c>
       <c r="L10">
-        <v>15419603</v>
+        <v>17760600</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F11">
         <v>40</v>
@@ -1492,27 +1480,27 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="2">
-        <v>2458229460000990</v>
+        <v>1165542523</v>
       </c>
       <c r="J11" s="2">
-        <v>6745805788853900</v>
+        <v>1904043291</v>
       </c>
       <c r="K11" s="2">
-        <v>7819351849585240</v>
+        <v>6116271677</v>
       </c>
       <c r="L11">
-        <v>10091673</v>
+        <v>51050045</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1521,28 +1509,28 @@
         <v>100</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I12" s="2">
-        <v>9375096659660330</v>
+        <v>245822946</v>
       </c>
       <c r="J12" s="2">
-        <v>4432316745670930</v>
+        <v>6745805789</v>
       </c>
       <c r="K12" s="2">
-        <v>7913451297414460</v>
+        <v>781935185</v>
       </c>
       <c r="L12">
-        <v>40377701</v>
+        <v>10091673</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1550,45 +1538,45 @@
         <v>2</v>
       </c>
       <c r="B13" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D13">
+        <v>500</v>
+      </c>
+      <c r="E13">
         <v>100</v>
       </c>
-      <c r="E13">
-        <v>300</v>
-      </c>
       <c r="F13">
         <v>20</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I13" s="2">
-        <v>1.89255129814147E+16</v>
+        <v>1369545319</v>
       </c>
       <c r="J13" s="2">
-        <v>7375499633753960</v>
+        <v>8819098926</v>
       </c>
       <c r="K13" s="2">
-        <v>8191348331760420</v>
+        <v>8987847574</v>
       </c>
       <c r="L13">
-        <v>3141905</v>
+        <v>3853006</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -1597,66 +1585,66 @@
         <v>250</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="F14">
         <v>20</v>
       </c>
-      <c r="G14" s="1">
-        <v>6.9444444444444447E-4</v>
+      <c r="G14">
+        <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I14" s="2">
-        <v>2096713490962980</v>
+        <v>1317496475</v>
       </c>
       <c r="J14" s="2">
-        <v>725548688918433</v>
+        <v>1233057793</v>
       </c>
       <c r="K14" s="2">
-        <v>8314571380131210</v>
+        <v>1230565688</v>
       </c>
       <c r="L14">
-        <v>3794645</v>
+        <v>15163419</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="E15">
         <v>20</v>
       </c>
       <c r="F15">
-        <v>40</v>
-      </c>
-      <c r="G15" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I15" s="2">
-        <v>1.39276477885246E+16</v>
+        <v>8303401728</v>
       </c>
       <c r="J15" s="2">
-        <v>720066433578193</v>
+        <v>1627990243</v>
       </c>
       <c r="K15" s="2">
-        <v>8578688010247840</v>
+        <v>1568182377</v>
       </c>
       <c r="L15">
-        <v>30295725</v>
+        <v>3899714</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1667,110 +1655,110 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I16" s="2">
-        <v>1.36954531884193E+16</v>
+        <v>2262458282</v>
       </c>
       <c r="J16" s="2">
-        <v>881909892605805</v>
+        <v>960250126</v>
       </c>
       <c r="K16" s="2">
-        <v>8987847574155330</v>
+        <v>1230529849</v>
       </c>
       <c r="L16">
-        <v>3853006</v>
+        <v>1949894</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F17">
-        <v>20</v>
-      </c>
-      <c r="G17" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I17" s="2">
-        <v>1.16855953907966E+16</v>
+        <v>6009683866</v>
       </c>
       <c r="J17" s="2">
-        <v>9017249281840970</v>
+        <v>4725888109</v>
       </c>
       <c r="K17" s="2">
-        <v>9166316112373610</v>
+        <v>6241849595</v>
       </c>
       <c r="L17">
-        <v>4398479</v>
+        <v>10193466</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F18">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>40</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I18" s="2">
-        <v>1.51367484688758E+16</v>
+        <v>4365425916</v>
       </c>
       <c r="J18" s="2">
-        <v>91489596943102</v>
+        <v>1307640246</v>
       </c>
       <c r="K18" s="2">
-        <v>9294972121584810</v>
+        <v>130814074</v>
       </c>
       <c r="L18">
-        <v>3286503</v>
+        <v>7682616</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1784,31 +1772,31 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E19">
         <v>20</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19" s="2">
-        <v>7870382771492000</v>
+        <v>1232213369</v>
       </c>
       <c r="J19" s="2">
-        <v>9500893875044640</v>
+        <v>2643711917</v>
       </c>
       <c r="K19" s="2">
-        <v>9845112866822890</v>
+        <v>2399271234</v>
       </c>
       <c r="L19">
-        <v>3249794</v>
+        <v>3162288</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1819,224 +1807,224 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="E20">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="F20">
-        <v>40</v>
-      </c>
-      <c r="G20" s="1">
+        <v>20</v>
+      </c>
+      <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I20" s="2">
-        <v>2.43138196921348E+16</v>
+        <v>7870382771</v>
       </c>
       <c r="J20" s="2">
-        <v>970064544412065</v>
+        <v>9500893875</v>
       </c>
       <c r="K20" s="2">
-        <v>9987083125928670</v>
+        <v>9845112867</v>
       </c>
       <c r="L20">
-        <v>1971924</v>
+        <v>3249794</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I21" s="2">
-        <v>2967975638151160</v>
+        <v>2752123601</v>
       </c>
       <c r="J21" s="2">
-        <v>9344742333518340</v>
+        <v>9010214998</v>
       </c>
       <c r="K21" s="2">
-        <v>1.02983964858733E+16</v>
+        <v>1310473755</v>
       </c>
       <c r="L21">
-        <v>40868456</v>
+        <v>17826389</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>100</v>
       </c>
       <c r="E22">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="F22">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I22" s="2">
-        <v>2.17893903458118E+16</v>
+        <v>2278165917</v>
       </c>
       <c r="J22" s="2">
-        <v>106684075952906</v>
+        <v>1028634269</v>
       </c>
       <c r="K22" s="2">
-        <v>1.07591171714671E+16</v>
+        <v>1293849227</v>
       </c>
       <c r="L22">
-        <v>15139042</v>
+        <v>1885023</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E23">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G23" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="I23" s="2">
-        <v>2820542230606070</v>
+        <v>1392764779</v>
       </c>
       <c r="J23" s="2">
-        <v>3410149569967580</v>
+        <v>7200664336</v>
       </c>
       <c r="K23" s="2">
-        <v>1.07631746609509E+16</v>
+        <v>857868801</v>
       </c>
       <c r="L23">
-        <v>3209363</v>
+        <v>30295725</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <v>1000</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I24" s="2">
-        <v>2410900058746330</v>
+        <v>1314727008</v>
       </c>
       <c r="J24" s="2">
-        <v>6850517432856010</v>
+        <v>2008166828</v>
       </c>
       <c r="K24" s="2">
-        <v>1.08894847561507E+16</v>
+        <v>1831570795</v>
       </c>
       <c r="L24">
-        <v>2628867</v>
+        <v>15420521</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25" s="1">
-        <v>6.9444444444444447E-4</v>
+      <c r="G25">
+        <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="I25" s="2">
-        <v>2.59409283876419E+16</v>
+        <v>333160095</v>
       </c>
       <c r="J25" s="2">
-        <v>7402975403476620</v>
+        <v>4200097578</v>
       </c>
       <c r="K25" s="2">
-        <v>1.10865813531719E+16</v>
+        <v>1352173355</v>
       </c>
       <c r="L25">
-        <v>3161921</v>
+        <v>40081836</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2047,34 +2035,34 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="E26">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G26" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I26" s="2">
-        <v>529554874920845</v>
+        <v>5303544722</v>
       </c>
       <c r="J26" s="2">
-        <v>1.18517080391302E+16</v>
+        <v>1029971708</v>
       </c>
       <c r="K26" s="2">
-        <v>1.11599802356516E+16</v>
+        <v>1023659049</v>
       </c>
       <c r="L26">
-        <v>4601146</v>
+        <v>1950069</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2082,75 +2070,75 @@
         <v>2</v>
       </c>
       <c r="B27" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>1000</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G27" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I27" s="2">
-        <v>2.46203264951705E+16</v>
+        <v>5295548749</v>
       </c>
       <c r="J27" s="2">
-        <v>7255392848106260</v>
+        <v>1185170804</v>
       </c>
       <c r="K27" s="2">
-        <v>1.11723699343176E+16</v>
+        <v>1115998024</v>
       </c>
       <c r="L27">
-        <v>3286040</v>
+        <v>4601146</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B28" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F28">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G28" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I28" s="2">
-        <v>1.72531155419349E+16</v>
+        <v>1168559539</v>
       </c>
       <c r="J28" s="2">
-        <v>1.06101081239671E+16</v>
+        <v>9017249282</v>
       </c>
       <c r="K28" s="2">
-        <v>1.15267623649802E+16</v>
+        <v>9166316112</v>
       </c>
       <c r="L28">
-        <v>30310923</v>
+        <v>4398479</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2161,110 +2149,110 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="E29">
         <v>100</v>
       </c>
       <c r="F29">
-        <v>20</v>
-      </c>
-      <c r="G29" s="1">
+        <v>40</v>
+      </c>
+      <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="I29" s="2">
-        <v>1.5723690598011E+16</v>
+        <v>2189299658</v>
       </c>
       <c r="J29" s="2">
-        <v>1.15703926723772E+16</v>
+        <v>5184501485</v>
       </c>
       <c r="K29" s="2">
-        <v>1.16973068087191E+16</v>
+        <v>665917695</v>
       </c>
       <c r="L29">
-        <v>12636210</v>
+        <v>15363291</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E30">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I30" s="2">
-        <v>5246192970275870</v>
-      </c>
-      <c r="J30" s="2">
-        <v>6195452324131270</v>
+        <v>2999518919</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
       </c>
       <c r="K30" s="2">
-        <v>1.1769985623896E+16</v>
+        <v>833901895511933</v>
       </c>
       <c r="L30">
-        <v>17902279</v>
+        <v>60183266</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="C31">
         <v>6</v>
       </c>
       <c r="D31">
+        <v>750</v>
+      </c>
+      <c r="E31">
         <v>100</v>
       </c>
-      <c r="E31">
-        <v>20</v>
-      </c>
       <c r="F31">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G31" s="1">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="I31" s="2">
-        <v>2178635880947110</v>
+        <v>2266812246</v>
       </c>
       <c r="J31" s="2">
-        <v>7.0460611033329296E+16</v>
+        <v>2247989881</v>
       </c>
       <c r="K31" s="2">
-        <v>1.18757090687339E+16</v>
+        <v>2006367668</v>
       </c>
       <c r="L31">
-        <v>1884587</v>
+        <v>7682389</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2272,37 +2260,37 @@
         <v>2</v>
       </c>
       <c r="B32" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I32" s="2">
-        <v>2.26245828151702E+16</v>
+        <v>1892551298</v>
       </c>
       <c r="J32" s="2">
-        <v>960250125965331</v>
+        <v>7375499634</v>
       </c>
       <c r="K32" s="2">
-        <v>1.23052984858104E+16</v>
+        <v>8191348332</v>
       </c>
       <c r="L32">
-        <v>1949894</v>
+        <v>3141905</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -2313,34 +2301,34 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F33">
         <v>20</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I33" s="2">
-        <v>1317496474981300</v>
+        <v>120910466</v>
       </c>
       <c r="J33" s="2">
-        <v>1.23305779345071E+16</v>
+        <v>2204721776</v>
       </c>
       <c r="K33" s="2">
-        <v>1.23056568771841E+16</v>
+        <v>1999877539</v>
       </c>
       <c r="L33">
-        <v>15163419</v>
+        <v>7646478</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2351,72 +2339,72 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D34">
+        <v>750</v>
+      </c>
+      <c r="E34">
         <v>100</v>
       </c>
-      <c r="E34">
-        <v>20</v>
-      </c>
       <c r="F34">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G34" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="H34" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I34" s="2">
-        <v>2.27816591739654E+16</v>
+        <v>1473565382</v>
       </c>
       <c r="J34" s="2">
-        <v>1.02863426864482E+16</v>
+        <v>1428539671</v>
       </c>
       <c r="K34" s="2">
-        <v>1.29384922656672E+16</v>
+        <v>1326693354</v>
       </c>
       <c r="L34">
-        <v>1885023</v>
+        <v>3900030</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="E35">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F35">
-        <v>40</v>
-      </c>
-      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I35" s="2">
-        <v>4365425915956490</v>
+        <v>2410900059</v>
       </c>
       <c r="J35" s="2">
-        <v>1307640246410770</v>
+        <v>6850517433</v>
       </c>
       <c r="K35" s="2">
-        <v>1.30814074033471E+16</v>
+        <v>1088948476</v>
       </c>
       <c r="L35">
-        <v>7682616</v>
+        <v>2628867</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2427,72 +2415,72 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="E36">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G36" s="1">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="H36" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="I36" s="2">
-        <v>5766528451442710</v>
+        <v>1667047295</v>
       </c>
       <c r="J36" s="2">
-        <v>2.14496162237284E+16</v>
+        <v>1649063582</v>
       </c>
       <c r="K36" s="2">
-        <v>1.31287125241793E+16</v>
+        <v>1541462918</v>
       </c>
       <c r="L36">
-        <v>60676771</v>
+        <v>51087199</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B37" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E37">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F37">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G37" s="1">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I37" s="2">
-        <v>1.47356538200378E+16</v>
+        <v>1725311554</v>
       </c>
       <c r="J37" s="2">
-        <v>1428539671228070</v>
+        <v>1061010812</v>
       </c>
       <c r="K37" s="2">
-        <v>1.32669335383627E+16</v>
+        <v>1152676236</v>
       </c>
       <c r="L37">
-        <v>3900030</v>
+        <v>30310923</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2503,39 +2491,39 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D38">
         <v>500</v>
       </c>
       <c r="E38">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" s="1">
-        <v>1.7361111111111112E-2</v>
+      <c r="G38">
+        <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I38" s="2">
-        <v>6647034687995910</v>
-      </c>
-      <c r="J38" s="2">
-        <v>3.40899995663319E+16</v>
+        <v>4771563621</v>
+      </c>
+      <c r="J38" t="s">
+        <v>51</v>
       </c>
       <c r="K38" s="2">
-        <v>1.32812649297875E+16</v>
+        <v>861643192822556</v>
       </c>
       <c r="L38">
-        <v>40335301</v>
+        <v>70416529</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B39" s="1">
         <v>6.9444444444444447E-4</v>
@@ -2544,31 +2532,31 @@
         <v>8</v>
       </c>
       <c r="D39">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="E39">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="H39" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I39" s="2">
-        <v>3.33160094976425E+16</v>
+        <v>3424517077</v>
       </c>
       <c r="J39" s="2">
-        <v>4200097577687710</v>
+        <v>2592009297</v>
       </c>
       <c r="K39" s="2">
-        <v>1.35217335541539E+16</v>
+        <v>2356918612</v>
       </c>
       <c r="L39">
-        <v>40081836</v>
+        <v>2599959</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -2585,42 +2573,42 @@
         <v>1000</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>20</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I40" s="2">
-        <v>3204586181640620</v>
+        <v>2967975638</v>
       </c>
       <c r="J40" s="2">
-        <v>5471972558629270</v>
+        <v>9344742334</v>
       </c>
       <c r="K40" s="2">
-        <v>1.38435381133018E+16</v>
+        <v>1029839649</v>
       </c>
       <c r="L40">
-        <v>40596449</v>
+        <v>40868456</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E41">
         <v>300</v>
@@ -2629,39 +2617,39 @@
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I41" s="2">
-        <v>3.04780257940292E+16</v>
+        <v>524619297</v>
       </c>
       <c r="J41" s="2">
-        <v>1.39849731853862E+16</v>
+        <v>6195452324</v>
       </c>
       <c r="K41" s="2">
-        <v>1.46994241000985E+16</v>
+        <v>1176998562</v>
       </c>
       <c r="L41">
-        <v>3852620</v>
+        <v>17902279</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="C42">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D42">
         <v>500</v>
       </c>
       <c r="E42">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2670,30 +2658,30 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I42" s="2">
-        <v>2925454070568080</v>
-      </c>
-      <c r="J42" t="s">
-        <v>21</v>
+        <v>6647034688</v>
+      </c>
+      <c r="J42" s="2">
+        <v>3408999957</v>
       </c>
       <c r="K42" s="2">
-        <v>1.48698420672922E+16</v>
+        <v>1328126493</v>
       </c>
       <c r="L42">
-        <v>17760600</v>
+        <v>40335301</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D43">
         <v>1000</v>
@@ -2702,63 +2690,63 @@
         <v>20</v>
       </c>
       <c r="F43">
-        <v>20</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>40</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I43" s="2">
-        <v>1667047295331950</v>
+        <v>3195441251</v>
       </c>
       <c r="J43" s="2">
-        <v>1649063582177990</v>
+        <v>5922670946</v>
       </c>
       <c r="K43" s="2">
-        <v>1.54146291809192E+16</v>
+        <v>7457638098</v>
       </c>
       <c r="L43">
-        <v>51087199</v>
+        <v>15419603</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B44" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D44">
         <v>250</v>
       </c>
       <c r="E44">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F44">
         <v>40</v>
       </c>
-      <c r="G44" s="1">
-        <v>1.7361111111111112E-2</v>
+      <c r="G44">
+        <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="I44" s="2">
-        <v>2.3716923880577E+16</v>
+        <v>4713715079</v>
       </c>
       <c r="J44" s="2">
-        <v>1.71830222434463E+16</v>
+        <v>500875187</v>
       </c>
       <c r="K44" s="2">
-        <v>1.56400235369556E+16</v>
+        <v>6704251809</v>
       </c>
       <c r="L44">
-        <v>50526850</v>
+        <v>17690243</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2769,34 +2757,34 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C45">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D45">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="E45">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F45">
         <v>20</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="H45" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I45" s="2">
-        <v>8303401727676390</v>
+        <v>1513674847</v>
       </c>
       <c r="J45" s="2">
-        <v>1.62799024310575E+16</v>
+        <v>9148959694</v>
       </c>
       <c r="K45" s="2">
-        <v>1.5681823766527E+16</v>
+        <v>9294972122</v>
       </c>
       <c r="L45">
-        <v>3899714</v>
+        <v>3286503</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2807,10 +2795,10 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C46">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D46">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E46">
         <v>20</v>
@@ -2822,106 +2810,106 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="H46" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="I46" s="2">
-        <v>2999518918991080</v>
-      </c>
-      <c r="J46" t="s">
-        <v>42</v>
+        <v>3204586182</v>
+      </c>
+      <c r="J46" s="2">
+        <v>5471972559</v>
       </c>
       <c r="K46" s="2">
-        <v>1.57299094955764E+16</v>
+        <v>1384353811</v>
       </c>
       <c r="L46">
-        <v>60183266</v>
+        <v>40596449</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B47" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="C47">
         <v>14</v>
       </c>
       <c r="D47">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E47">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="H47" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I47" s="2">
-        <v>4771563620567320</v>
+        <v>29737743</v>
       </c>
       <c r="J47" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K47" s="2">
-        <v>1.63463827691458E+16</v>
+        <v>3033404961</v>
       </c>
       <c r="L47">
-        <v>70416529</v>
+        <v>17908122</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D48">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="E48">
         <v>20</v>
       </c>
       <c r="F48">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="H48" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I48" s="2">
-        <v>1.3147270078659E+16</v>
+        <v>2594092839</v>
       </c>
       <c r="J48" s="2">
-        <v>2.00816682793739E+16</v>
+        <v>7402975403</v>
       </c>
       <c r="K48" s="2">
-        <v>1.83157079463949E+16</v>
+        <v>1108658135</v>
       </c>
       <c r="L48">
-        <v>15420521</v>
+        <v>3161921</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>500</v>
@@ -2930,39 +2918,39 @@
         <v>100</v>
       </c>
       <c r="F49">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G49" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="H49" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I49" s="2">
-        <v>1.20910466003417E+16</v>
+        <v>2820542231</v>
       </c>
       <c r="J49" s="2">
-        <v>2204721776402200</v>
+        <v>341014957</v>
       </c>
       <c r="K49" s="2">
-        <v>1.99987753885255E+16</v>
+        <v>1076317466</v>
       </c>
       <c r="L49">
-        <v>7646478</v>
+        <v>3209363</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B50" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D50">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -2974,19 +2962,19 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="H50" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I50" s="2">
-        <v>2.26681224608421E+16</v>
+        <v>7770388526</v>
       </c>
       <c r="J50" s="2">
-        <v>2247989880501880</v>
+        <v>4767139348</v>
       </c>
       <c r="K50" s="2">
-        <v>2.00636766778044E+16</v>
+        <v>7514549953</v>
       </c>
       <c r="L50">
-        <v>7682389</v>
+        <v>70721692</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2994,48 +2982,48 @@
         <v>2</v>
       </c>
       <c r="B51" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D51">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E51">
         <v>300</v>
       </c>
       <c r="F51">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G51" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="H51" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I51" s="2">
-        <v>3.42451707696914E+16</v>
+        <v>2096713491</v>
       </c>
       <c r="J51" s="2">
-        <v>2.5920092969969E+16</v>
+        <v>7255486889</v>
       </c>
       <c r="K51" s="2">
-        <v>2.35691861188486E+16</v>
+        <v>831457138</v>
       </c>
       <c r="L51">
-        <v>2599959</v>
+        <v>3794645</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B52" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D52">
         <v>500</v>
@@ -3044,36 +3032,36 @@
         <v>300</v>
       </c>
       <c r="F52">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="H52" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="I52" s="2">
-        <v>6009683866024010</v>
+        <v>3047802579</v>
       </c>
       <c r="J52" s="2">
-        <v>472588810850346</v>
+        <v>1398497319</v>
       </c>
       <c r="K52" s="2">
-        <v>6.2418495948642896E+16</v>
+        <v>146994241</v>
       </c>
       <c r="L52">
-        <v>10193466</v>
+        <v>3852620</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B53" s="1">
-        <v>1.7361111111111112E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D53">
         <v>250</v>
@@ -3082,25 +3070,25 @@
         <v>100</v>
       </c>
       <c r="F53">
-        <v>40</v>
-      </c>
-      <c r="G53" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>20</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="I53" s="2">
-        <v>2845186578989020</v>
+        <v>157236906</v>
       </c>
       <c r="J53" s="2">
-        <v>440612237139874</v>
+        <v>1157039267</v>
       </c>
       <c r="K53" s="2">
-        <v>7.3246160237024704E+16</v>
+        <v>1169730681</v>
       </c>
       <c r="L53">
-        <v>30298001</v>
+        <v>12636210</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -3111,40 +3099,37 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="C54">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D54">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="E54">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F54">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G54" s="1">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="H54" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I54" s="2">
-        <v>7770388526201240</v>
+        <v>5766528451</v>
       </c>
       <c r="J54" s="2">
-        <v>4767139347699340</v>
+        <v>2144961622</v>
       </c>
       <c r="K54" s="2">
-        <v>7.5145499534355904E+16</v>
+        <v>1312871252</v>
       </c>
       <c r="L54">
-        <v>70721692</v>
+        <v>60676771</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L54">
-    <sortCondition ref="K2:K54"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>